--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmrn2-Clec14a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Mmrn2</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H2">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I2">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J2">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.63432666666667</v>
+        <v>18.947607</v>
       </c>
       <c r="N2">
-        <v>58.90298</v>
+        <v>56.84282099999999</v>
       </c>
       <c r="O2">
-        <v>0.9260728160157149</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="P2">
-        <v>0.9260728160157149</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="Q2">
-        <v>1050.396003774631</v>
+        <v>1122.219336749679</v>
       </c>
       <c r="R2">
-        <v>9453.564033971681</v>
+        <v>10099.97403074711</v>
       </c>
       <c r="S2">
-        <v>0.9003926342498294</v>
+        <v>0.8973765339877385</v>
       </c>
       <c r="T2">
-        <v>0.9003926342498293</v>
+        <v>0.8973765339877384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H3">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I3">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J3">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +620,22 @@
         <v>4.439003</v>
       </c>
       <c r="O3">
-        <v>0.06979001755959048</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="P3">
-        <v>0.06979001755959047</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="Q3">
-        <v>79.15917007838311</v>
+        <v>87.63701228849699</v>
       </c>
       <c r="R3">
-        <v>712.432530705448</v>
+        <v>788.7331105964729</v>
       </c>
       <c r="S3">
-        <v>0.06785472661337161</v>
+        <v>0.07007845593203711</v>
       </c>
       <c r="T3">
-        <v>0.06785472661337159</v>
+        <v>0.0700784559320371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.49793866666667</v>
+        <v>59.227497</v>
       </c>
       <c r="H4">
-        <v>160.493816</v>
+        <v>177.682491</v>
       </c>
       <c r="I4">
-        <v>0.9722698028472853</v>
+        <v>0.9751128597187447</v>
       </c>
       <c r="J4">
-        <v>0.9722698028472851</v>
+        <v>0.9751128597187446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,43 +676,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08140800000000001</v>
+        <v>0.1616916666666667</v>
       </c>
       <c r="N4">
-        <v>0.244224</v>
+        <v>0.485075</v>
       </c>
       <c r="O4">
-        <v>0.003839690409867582</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="P4">
-        <v>0.003839690409867582</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="Q4">
-        <v>4.355160190976001</v>
+        <v>9.576592702425001</v>
       </c>
       <c r="R4">
-        <v>39.19644171878401</v>
+        <v>86.189334321825</v>
       </c>
       <c r="S4">
-        <v>0.003733215037796566</v>
+        <v>0.007657869798969026</v>
       </c>
       <c r="T4">
-        <v>0.003733215037796566</v>
+        <v>0.007657869798969025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.49793866666667</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H5">
-        <v>160.493816</v>
+        <v>2.790231</v>
       </c>
       <c r="I5">
-        <v>0.9722698028472853</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J5">
-        <v>0.9722698028472851</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.006307</v>
+        <v>18.947607</v>
       </c>
       <c r="N5">
-        <v>0.018921</v>
+        <v>56.84282099999999</v>
       </c>
       <c r="O5">
-        <v>0.0002974760148269806</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="P5">
-        <v>0.0002974760148269806</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="Q5">
-        <v>0.3374114991706667</v>
+        <v>17.622733475739</v>
       </c>
       <c r="R5">
-        <v>3.036703492536</v>
+        <v>158.604601281651</v>
       </c>
       <c r="S5">
-        <v>0.0002892269462876246</v>
+        <v>0.01409192211181428</v>
       </c>
       <c r="T5">
-        <v>0.0002892269462876245</v>
+        <v>0.01409192211181428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H6">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I6">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J6">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.63432666666667</v>
+        <v>1.479667666666667</v>
       </c>
       <c r="N6">
-        <v>58.90298</v>
+        <v>4.439003</v>
       </c>
       <c r="O6">
-        <v>0.9260728160157149</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="P6">
-        <v>0.9260728160157149</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="Q6">
-        <v>18.26143564315333</v>
+        <v>1.376204864410333</v>
       </c>
       <c r="R6">
-        <v>164.35292078838</v>
+        <v>12.385843779693</v>
       </c>
       <c r="S6">
-        <v>0.01565358406242603</v>
+        <v>0.001100474667330636</v>
       </c>
       <c r="T6">
-        <v>0.01565358406242602</v>
+        <v>0.001100474667330636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9300769999999998</v>
+        <v>0.9300769999999999</v>
       </c>
       <c r="H7">
-        <v>2.790230999999999</v>
+        <v>2.790231</v>
       </c>
       <c r="I7">
-        <v>0.01690318924355555</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="J7">
-        <v>0.01690318924355554</v>
+        <v>0.01531265187905258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,42 +862,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.479667666666667</v>
+        <v>0.1616916666666667</v>
       </c>
       <c r="N7">
-        <v>4.439003</v>
+        <v>0.485075</v>
       </c>
       <c r="O7">
-        <v>0.06979001755959048</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="P7">
-        <v>0.06979001755959047</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="Q7">
-        <v>1.376204864410333</v>
+        <v>0.1503857002583333</v>
       </c>
       <c r="R7">
-        <v>12.385843779693</v>
+        <v>1.353471302325</v>
       </c>
       <c r="S7">
-        <v>0.001179673874120823</v>
+        <v>0.0001202550999076614</v>
       </c>
       <c r="T7">
-        <v>0.001179673874120822</v>
+        <v>0.0001202550999076614</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9300769999999998</v>
+        <v>0.581546</v>
       </c>
       <c r="H8">
-        <v>2.790230999999999</v>
+        <v>1.744638</v>
       </c>
       <c r="I8">
-        <v>0.01690318924355555</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J8">
-        <v>0.01690318924355554</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,43 +924,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08140800000000001</v>
+        <v>18.947607</v>
       </c>
       <c r="N8">
-        <v>0.244224</v>
+        <v>56.84282099999999</v>
       </c>
       <c r="O8">
-        <v>0.003839690409867582</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="P8">
-        <v>0.003839690409867582</v>
+        <v>0.9202796630603067</v>
       </c>
       <c r="Q8">
-        <v>0.07571570841599999</v>
+        <v>11.018905060422</v>
       </c>
       <c r="R8">
-        <v>0.681441375744</v>
+        <v>99.17014554379799</v>
       </c>
       <c r="S8">
-        <v>6.49030136346571E-05</v>
+        <v>0.008811206960753945</v>
       </c>
       <c r="T8">
-        <v>6.490301363465708E-05</v>
+        <v>0.008811206960753944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -974,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9300769999999998</v>
+        <v>0.581546</v>
       </c>
       <c r="H9">
-        <v>2.790230999999999</v>
+        <v>1.744638</v>
       </c>
       <c r="I9">
-        <v>0.01690318924355555</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J9">
-        <v>0.01690318924355554</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.006307</v>
+        <v>1.479667666666667</v>
       </c>
       <c r="N9">
-        <v>0.018921</v>
+        <v>4.439003</v>
       </c>
       <c r="O9">
-        <v>0.0002974760148269806</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="P9">
-        <v>0.0002974760148269806</v>
+        <v>0.07186702055416445</v>
       </c>
       <c r="Q9">
-        <v>0.005865995638999999</v>
+        <v>0.8604948128793333</v>
       </c>
       <c r="R9">
-        <v>0.05279396075099999</v>
+        <v>7.744453315913999</v>
       </c>
       <c r="S9">
-        <v>5.028293374039189E-06</v>
+        <v>0.000688089954796713</v>
       </c>
       <c r="T9">
-        <v>5.028293374039188E-06</v>
+        <v>0.0006880899547967128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08127666666666668</v>
+        <v>0.581546</v>
       </c>
       <c r="H10">
-        <v>0.24383</v>
+        <v>1.744638</v>
       </c>
       <c r="I10">
-        <v>0.001477119504892659</v>
+        <v>0.009574488402202732</v>
       </c>
       <c r="J10">
-        <v>0.001477119504892659</v>
+        <v>0.00957448840220273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,710 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.63432666666667</v>
+        <v>0.1616916666666667</v>
       </c>
       <c r="N10">
-        <v>58.90298</v>
+        <v>0.485075</v>
       </c>
       <c r="O10">
-        <v>0.9260728160157149</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="P10">
-        <v>0.9260728160157149</v>
+        <v>0.007853316385528761</v>
       </c>
       <c r="Q10">
-        <v>1.595812623711111</v>
+        <v>0.09403114198333334</v>
       </c>
       <c r="R10">
-        <v>14.3623136134</v>
+        <v>0.84628027785</v>
       </c>
       <c r="S10">
-        <v>0.001367920219487684</v>
+        <v>7.51914866520738E-05</v>
       </c>
       <c r="T10">
-        <v>0.001367920219487683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.08127666666666668</v>
-      </c>
-      <c r="H11">
-        <v>0.24383</v>
-      </c>
-      <c r="I11">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="J11">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.479667666666667</v>
-      </c>
-      <c r="N11">
-        <v>4.439003</v>
-      </c>
-      <c r="O11">
-        <v>0.06979001755959048</v>
-      </c>
-      <c r="P11">
-        <v>0.06979001755959047</v>
-      </c>
-      <c r="Q11">
-        <v>0.1202624557211111</v>
-      </c>
-      <c r="R11">
-        <v>1.08236210149</v>
-      </c>
-      <c r="S11">
-        <v>0.0001030881961840723</v>
-      </c>
-      <c r="T11">
-        <v>0.0001030881961840723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.08127666666666668</v>
-      </c>
-      <c r="H12">
-        <v>0.24383</v>
-      </c>
-      <c r="I12">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="J12">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.08140800000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.244224</v>
-      </c>
-      <c r="O12">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="P12">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="Q12">
-        <v>0.006616570880000001</v>
-      </c>
-      <c r="R12">
-        <v>0.05954913792000001</v>
-      </c>
-      <c r="S12">
-        <v>5.671681597164695E-06</v>
-      </c>
-      <c r="T12">
-        <v>5.671681597164694E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.08127666666666668</v>
-      </c>
-      <c r="H13">
-        <v>0.24383</v>
-      </c>
-      <c r="I13">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="J13">
-        <v>0.001477119504892659</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.006307</v>
-      </c>
-      <c r="N13">
-        <v>0.018921</v>
-      </c>
-      <c r="O13">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="P13">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="Q13">
-        <v>0.0005126119366666667</v>
-      </c>
-      <c r="R13">
-        <v>0.00461350743</v>
-      </c>
-      <c r="S13">
-        <v>4.39407623738671E-07</v>
-      </c>
-      <c r="T13">
-        <v>4.394076237386709E-07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H14">
-        <v>1.441336</v>
-      </c>
-      <c r="I14">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J14">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>19.63432666666667</v>
-      </c>
-      <c r="N14">
-        <v>58.90298</v>
-      </c>
-      <c r="O14">
-        <v>0.9260728160157149</v>
-      </c>
-      <c r="P14">
-        <v>0.9260728160157149</v>
-      </c>
-      <c r="Q14">
-        <v>9.433220620142222</v>
-      </c>
-      <c r="R14">
-        <v>84.89898558128002</v>
-      </c>
-      <c r="S14">
-        <v>0.008086095466002953</v>
-      </c>
-      <c r="T14">
-        <v>0.008086095466002953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H15">
-        <v>1.441336</v>
-      </c>
-      <c r="I15">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J15">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.479667666666667</v>
-      </c>
-      <c r="N15">
-        <v>4.439003</v>
-      </c>
-      <c r="O15">
-        <v>0.06979001755959048</v>
-      </c>
-      <c r="P15">
-        <v>0.06979001755959047</v>
-      </c>
-      <c r="Q15">
-        <v>0.7108994253342222</v>
-      </c>
-      <c r="R15">
-        <v>6.398094828008</v>
-      </c>
-      <c r="S15">
-        <v>0.0006093783715505313</v>
-      </c>
-      <c r="T15">
-        <v>0.0006093783715505311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H16">
-        <v>1.441336</v>
-      </c>
-      <c r="I16">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J16">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.08140800000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.244224</v>
-      </c>
-      <c r="O16">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="P16">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="Q16">
-        <v>0.03911209369600001</v>
-      </c>
-      <c r="R16">
-        <v>0.3520088432640001</v>
-      </c>
-      <c r="S16">
-        <v>3.352663276270751E-05</v>
-      </c>
-      <c r="T16">
-        <v>3.352663276270751E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.4804453333333334</v>
-      </c>
-      <c r="H17">
-        <v>1.441336</v>
-      </c>
-      <c r="I17">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="J17">
-        <v>0.008731597911265907</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.006307</v>
-      </c>
-      <c r="N17">
-        <v>0.018921</v>
-      </c>
-      <c r="O17">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="P17">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="Q17">
-        <v>0.003030168717333334</v>
-      </c>
-      <c r="R17">
-        <v>0.027271518456</v>
-      </c>
-      <c r="S17">
-        <v>2.59744094971497E-06</v>
-      </c>
-      <c r="T17">
-        <v>2.59744094971497E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H18">
-        <v>0.102062</v>
-      </c>
-      <c r="I18">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J18">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>19.63432666666667</v>
-      </c>
-      <c r="N18">
-        <v>58.90298</v>
-      </c>
-      <c r="O18">
-        <v>0.9260728160157149</v>
-      </c>
-      <c r="P18">
-        <v>0.9260728160157149</v>
-      </c>
-      <c r="Q18">
-        <v>0.6679728827511111</v>
-      </c>
-      <c r="R18">
-        <v>6.01175594476</v>
-      </c>
-      <c r="S18">
-        <v>0.0005725820179688797</v>
-      </c>
-      <c r="T18">
-        <v>0.0005725820179688797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H19">
-        <v>0.102062</v>
-      </c>
-      <c r="I19">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J19">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.479667666666667</v>
-      </c>
-      <c r="N19">
-        <v>4.439003</v>
-      </c>
-      <c r="O19">
-        <v>0.06979001755959048</v>
-      </c>
-      <c r="P19">
-        <v>0.06979001755959047</v>
-      </c>
-      <c r="Q19">
-        <v>0.0503392804651111</v>
-      </c>
-      <c r="R19">
-        <v>0.453053524186</v>
-      </c>
-      <c r="S19">
-        <v>4.315050436344496E-05</v>
-      </c>
-      <c r="T19">
-        <v>4.315050436344496E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.102062</v>
-      </c>
-      <c r="I20">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J20">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.08140800000000001</v>
-      </c>
-      <c r="N20">
-        <v>0.244224</v>
-      </c>
-      <c r="O20">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="P20">
-        <v>0.003839690409867582</v>
-      </c>
-      <c r="Q20">
-        <v>0.002769554432</v>
-      </c>
-      <c r="R20">
-        <v>0.024925989888</v>
-      </c>
-      <c r="S20">
-        <v>2.374044076486991E-06</v>
-      </c>
-      <c r="T20">
-        <v>2.374044076486991E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.03402066666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.102062</v>
-      </c>
-      <c r="I21">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="J21">
-        <v>0.000618290493000675</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.006307</v>
-      </c>
-      <c r="N21">
-        <v>0.018921</v>
-      </c>
-      <c r="O21">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="P21">
-        <v>0.0002974760148269806</v>
-      </c>
-      <c r="Q21">
-        <v>0.0002145683446666666</v>
-      </c>
-      <c r="R21">
-        <v>0.001931115102</v>
-      </c>
-      <c r="S21">
-        <v>1.839265918632499E-07</v>
-      </c>
-      <c r="T21">
-        <v>1.839265918632499E-07</v>
+        <v>7.519148665207379E-05</v>
       </c>
     </row>
   </sheetData>
